--- a/segur-rapport/src/main/resources/template-segur-requirement-export-avec-colonnes-prepub-modifie.xlsx
+++ b/segur-rapport/src/main/resources/template-segur-requirement-export-avec-colonnes-prepub-modifie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flabatie\Documents\ENV-ANS\19-PLUGIN-SQUASH\squash-plugin\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC2D3EF-0E0F-4D16-B3CB-214D352B221E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D83D57C-9D02-4637-90E1-20686F942209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14520" yWindow="-18120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exigences" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Profil</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Commentaire</t>
+  </si>
+  <si>
+    <t>VA N-1</t>
   </si>
 </sst>
 </file>
@@ -713,11 +716,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AC2" sqref="AC2"/>
+      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.5"/>
@@ -749,15 +752,15 @@
     <col min="25" max="25" width="18.5703125" style="7" customWidth="1"/>
     <col min="26" max="26" width="30.5703125" style="6" customWidth="1"/>
     <col min="27" max="27" width="18.5703125" style="7" customWidth="1"/>
-    <col min="28" max="30" width="30.5703125" style="6" customWidth="1"/>
-    <col min="31" max="34" width="15.2109375" style="21" customWidth="1"/>
-    <col min="35" max="35" width="40.28515625" style="21" customWidth="1"/>
-    <col min="36" max="36" width="52.28515625" style="21" customWidth="1"/>
-    <col min="37" max="37" width="13.92578125" style="21" customWidth="1"/>
-    <col min="38" max="16384" width="9.28515625" style="8"/>
+    <col min="28" max="31" width="30.5703125" style="6" customWidth="1"/>
+    <col min="32" max="35" width="15.2109375" style="21" customWidth="1"/>
+    <col min="36" max="36" width="40.28515625" style="21" customWidth="1"/>
+    <col min="37" max="37" width="52.28515625" style="21" customWidth="1"/>
+    <col min="38" max="38" width="13.92578125" style="21" customWidth="1"/>
+    <col min="39" max="16384" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" ht="56.25" customHeight="1">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="56.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>43</v>
       </c>
@@ -848,29 +851,32 @@
       <c r="AD1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AE1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AG1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AH1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="23" t="s">
+      <c r="AI1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AK1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="23" t="s">
+      <c r="AL1" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="21" customFormat="1" ht="68.25" customHeight="1">
+    <row r="2" spans="1:38" s="21" customFormat="1" ht="68.25" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
@@ -957,30 +963,31 @@
       </c>
       <c r="AC2" s="17"/>
       <c r="AD2" s="17"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="19" t="s">
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" s="19" t="s">
-        <v>38</v>
-      </c>
       <c r="AH2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20" t="s">
-        <v>38</v>
-      </c>
+      <c r="AJ2" s="20"/>
       <c r="AK2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" s="20" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:AB2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="AF2" r:id="rId1" xr:uid="{469CC100-57DA-4667-A398-7625D4E1EA7C}"/>
-    <hyperlink ref="AG2" r:id="rId2" xr:uid="{E89A2FEC-0659-4F61-ADA4-07A73EB5618E}"/>
-    <hyperlink ref="AH2" r:id="rId3" xr:uid="{4F8A1E68-C5B6-42D4-A495-3784461637C1}"/>
+    <hyperlink ref="AG2" r:id="rId1" xr:uid="{469CC100-57DA-4667-A398-7625D4E1EA7C}"/>
+    <hyperlink ref="AH2" r:id="rId2" xr:uid="{E89A2FEC-0659-4F61-ADA4-07A73EB5618E}"/>
+    <hyperlink ref="AI2" r:id="rId3" xr:uid="{4F8A1E68-C5B6-42D4-A495-3784461637C1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/segur-rapport/src/main/resources/template-segur-requirement-export-avec-colonnes-prepub-modifie.xlsx
+++ b/segur-rapport/src/main/resources/template-segur-requirement-export-avec-colonnes-prepub-modifie.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flabatie\Documents\ENV-ANS\19-PLUGIN-SQUASH\squash-plugin\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flabatie\Documents\ENV-ANS\19-PLUGIN-SQUASH\Claire2\squash-plugin\segur-rapport\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D83D57C-9D02-4637-90E1-20686F942209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FAA47A-17DA-4E8C-8B47-FCC7E1FB35DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14520" yWindow="-18120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14280" yWindow="-18120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exigences" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Exigences!$B$1:$AB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Exigences!$C$1:$AC$1</definedName>
     <definedName name="appDefaut">#REF!</definedName>
     <definedName name="Applicable">#REF!</definedName>
     <definedName name="appNonApp">#REF!</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Profil</t>
   </si>
@@ -200,13 +200,19 @@
   </si>
   <si>
     <t>VA N-1</t>
+  </si>
+  <si>
+    <t>Périmètre</t>
+  </si>
+  <si>
+    <t>Vague 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -219,45 +225,45 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -288,6 +294,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -319,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -342,6 +355,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -349,7 +390,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -429,12 +470,20 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -716,278 +765,288 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.2109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.92578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.2109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="66.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.0703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.2109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="66.42578125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="30.5703125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="30.5703125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="7" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="30.5703125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="30.5703125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" style="7" customWidth="1"/>
-    <col min="24" max="24" width="30.5703125" style="6" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" style="7" customWidth="1"/>
-    <col min="26" max="26" width="30.5703125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="18.5703125" style="7" customWidth="1"/>
-    <col min="28" max="31" width="30.5703125" style="6" customWidth="1"/>
-    <col min="32" max="35" width="15.2109375" style="21" customWidth="1"/>
-    <col min="36" max="36" width="40.28515625" style="21" customWidth="1"/>
-    <col min="37" max="37" width="52.28515625" style="21" customWidth="1"/>
-    <col min="38" max="38" width="13.92578125" style="21" customWidth="1"/>
-    <col min="39" max="16384" width="9.28515625" style="8"/>
+    <col min="1" max="1" width="9.28515625" style="8"/>
+    <col min="2" max="2" width="13.2109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.92578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.2109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="66.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.0703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.2109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="66.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="30.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="7" customWidth="1"/>
+    <col min="19" max="19" width="30.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="30.5703125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="30.5703125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="30.5703125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="18.5703125" style="7" customWidth="1"/>
+    <col min="27" max="27" width="30.5703125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" style="7" customWidth="1"/>
+    <col min="29" max="32" width="30.5703125" style="6" customWidth="1"/>
+    <col min="33" max="36" width="15.2109375" style="21" customWidth="1"/>
+    <col min="37" max="37" width="40.28515625" style="21" customWidth="1"/>
+    <col min="38" max="38" width="52.28515625" style="21" customWidth="1"/>
+    <col min="39" max="39" width="13.92578125" style="21" customWidth="1"/>
+    <col min="40" max="16384" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AE1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AF1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AG1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AH1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="23" t="s">
+      <c r="AI1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AK1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="23" t="s">
+      <c r="AL1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="23" t="s">
+      <c r="AM1" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="21" customFormat="1" ht="68.25" customHeight="1">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:39" s="21" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC2" s="17"/>
+      <c r="K2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="AD2" s="17"/>
       <c r="AE2" s="17"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="19" t="s">
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="19" t="s">
-        <v>38</v>
-      </c>
       <c r="AI2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20" t="s">
-        <v>38</v>
-      </c>
+      <c r="AK2" s="20"/>
       <c r="AL2" s="20" t="s">
         <v>38</v>
       </c>
+      <c r="AM2" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AB2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:AC2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="AG2" r:id="rId1" xr:uid="{469CC100-57DA-4667-A398-7625D4E1EA7C}"/>
-    <hyperlink ref="AH2" r:id="rId2" xr:uid="{E89A2FEC-0659-4F61-ADA4-07A73EB5618E}"/>
-    <hyperlink ref="AI2" r:id="rId3" xr:uid="{4F8A1E68-C5B6-42D4-A495-3784461637C1}"/>
+    <hyperlink ref="AH2" r:id="rId1" xr:uid="{469CC100-57DA-4667-A398-7625D4E1EA7C}"/>
+    <hyperlink ref="AI2" r:id="rId2" xr:uid="{E89A2FEC-0659-4F61-ADA4-07A73EB5618E}"/>
+    <hyperlink ref="AJ2" r:id="rId3" xr:uid="{4F8A1E68-C5B6-42D4-A495-3784461637C1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/segur-rapport/src/main/resources/template-segur-requirement-export-avec-colonnes-prepub-modifie.xlsx
+++ b/segur-rapport/src/main/resources/template-segur-requirement-export-avec-colonnes-prepub-modifie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flabatie\Documents\ENV-ANS\19-PLUGIN-SQUASH\Claire2\squash-plugin\segur-rapport\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FAA47A-17DA-4E8C-8B47-FCC7E1FB35DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E755F4AC-2BE8-4E05-AD8C-F143242DE8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14280" yWindow="-18120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>Profil</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Vague 1</t>
+  </si>
+  <si>
+    <t>Criticité</t>
   </si>
 </sst>
 </file>
@@ -765,11 +768,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.5"/>
@@ -802,15 +805,15 @@
     <col min="26" max="26" width="18.5703125" style="7" customWidth="1"/>
     <col min="27" max="27" width="30.5703125" style="6" customWidth="1"/>
     <col min="28" max="28" width="18.5703125" style="7" customWidth="1"/>
-    <col min="29" max="32" width="30.5703125" style="6" customWidth="1"/>
-    <col min="33" max="36" width="15.2109375" style="21" customWidth="1"/>
-    <col min="37" max="37" width="40.28515625" style="21" customWidth="1"/>
-    <col min="38" max="38" width="52.28515625" style="21" customWidth="1"/>
-    <col min="39" max="39" width="13.92578125" style="21" customWidth="1"/>
-    <col min="40" max="16384" width="9.28515625" style="8"/>
+    <col min="29" max="33" width="30.5703125" style="6" customWidth="1"/>
+    <col min="34" max="37" width="15.2109375" style="21" customWidth="1"/>
+    <col min="38" max="38" width="40.28515625" style="21" customWidth="1"/>
+    <col min="39" max="39" width="52.28515625" style="21" customWidth="1"/>
+    <col min="40" max="40" width="13.92578125" style="21" customWidth="1"/>
+    <col min="41" max="16384" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="56.25" customHeight="1">
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="56.25" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>48</v>
       </c>
@@ -907,29 +910,32 @@
       <c r="AF1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AG1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AI1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="22" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AK1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AL1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AM1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AN1" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="21" customFormat="1" ht="68.25" customHeight="1">
+    <row r="2" spans="1:40" s="21" customFormat="1" ht="68.25" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>49</v>
       </c>
@@ -1020,33 +1026,34 @@
       <c r="AD2" s="17"/>
       <c r="AE2" s="17"/>
       <c r="AF2" s="17"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19" t="s">
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="19" t="s">
-        <v>38</v>
-      </c>
       <c r="AJ2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20" t="s">
-        <v>38</v>
-      </c>
+      <c r="AL2" s="20"/>
       <c r="AM2" s="20" t="s">
         <v>38</v>
       </c>
+      <c r="AN2" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:40">
       <c r="A10" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:AC2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="AH2" r:id="rId1" xr:uid="{469CC100-57DA-4667-A398-7625D4E1EA7C}"/>
-    <hyperlink ref="AI2" r:id="rId2" xr:uid="{E89A2FEC-0659-4F61-ADA4-07A73EB5618E}"/>
-    <hyperlink ref="AJ2" r:id="rId3" xr:uid="{4F8A1E68-C5B6-42D4-A495-3784461637C1}"/>
+    <hyperlink ref="AI2" r:id="rId1" xr:uid="{469CC100-57DA-4667-A398-7625D4E1EA7C}"/>
+    <hyperlink ref="AJ2" r:id="rId2" xr:uid="{E89A2FEC-0659-4F61-ADA4-07A73EB5618E}"/>
+    <hyperlink ref="AK2" r:id="rId3" xr:uid="{4F8A1E68-C5B6-42D4-A495-3784461637C1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/segur-rapport/src/main/resources/template-segur-requirement-export-avec-colonnes-prepub-modifie.xlsx
+++ b/segur-rapport/src/main/resources/template-segur-requirement-export-avec-colonnes-prepub-modifie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flabatie\Documents\ENV-ANS\19-PLUGIN-SQUASH\Claire2\squash-plugin\segur-rapport\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E755F4AC-2BE8-4E05-AD8C-F143242DE8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DA21E3-2E15-4C55-ACD5-37545F4A7BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="-18120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exigences" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Profil</t>
   </si>
@@ -209,6 +209,15 @@
   </si>
   <si>
     <t>Criticité</t>
+  </si>
+  <si>
+    <t>Ordre</t>
+  </si>
+  <si>
+    <t>Mineure</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -393,7 +402,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -487,6 +496,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -768,11 +781,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:AN10"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AG1" sqref="AG1"/>
+      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.5"/>
@@ -805,15 +818,15 @@
     <col min="26" max="26" width="18.5703125" style="7" customWidth="1"/>
     <col min="27" max="27" width="30.5703125" style="6" customWidth="1"/>
     <col min="28" max="28" width="18.5703125" style="7" customWidth="1"/>
-    <col min="29" max="33" width="30.5703125" style="6" customWidth="1"/>
-    <col min="34" max="37" width="15.2109375" style="21" customWidth="1"/>
-    <col min="38" max="38" width="40.28515625" style="21" customWidth="1"/>
-    <col min="39" max="39" width="52.28515625" style="21" customWidth="1"/>
-    <col min="40" max="40" width="13.92578125" style="21" customWidth="1"/>
-    <col min="41" max="16384" width="9.28515625" style="8"/>
+    <col min="29" max="34" width="30.5703125" style="6" customWidth="1"/>
+    <col min="35" max="38" width="15.2109375" style="21" customWidth="1"/>
+    <col min="39" max="39" width="40.28515625" style="21" customWidth="1"/>
+    <col min="40" max="40" width="52.28515625" style="21" customWidth="1"/>
+    <col min="41" max="41" width="13.92578125" style="21" customWidth="1"/>
+    <col min="42" max="16384" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="56.25" customHeight="1">
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="56.25" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>48</v>
       </c>
@@ -913,29 +926,32 @@
       <c r="AG1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AH1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="22" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AK1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AL1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AM1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AN1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AO1" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="21" customFormat="1" ht="68.25" customHeight="1">
+    <row r="2" spans="1:41" s="21" customFormat="1" ht="68.25" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>49</v>
       </c>
@@ -1025,35 +1041,42 @@
       </c>
       <c r="AD2" s="17"/>
       <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AF2" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="19" t="s">
-        <v>38</v>
-      </c>
       <c r="AK2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20" t="s">
-        <v>38</v>
-      </c>
+      <c r="AM2" s="20"/>
       <c r="AN2" s="20" t="s">
         <v>38</v>
       </c>
+      <c r="AO2" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:41">
       <c r="A10" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:AC2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="AI2" r:id="rId1" xr:uid="{469CC100-57DA-4667-A398-7625D4E1EA7C}"/>
-    <hyperlink ref="AJ2" r:id="rId2" xr:uid="{E89A2FEC-0659-4F61-ADA4-07A73EB5618E}"/>
-    <hyperlink ref="AK2" r:id="rId3" xr:uid="{4F8A1E68-C5B6-42D4-A495-3784461637C1}"/>
+    <hyperlink ref="AJ2" r:id="rId1" xr:uid="{469CC100-57DA-4667-A398-7625D4E1EA7C}"/>
+    <hyperlink ref="AK2" r:id="rId2" xr:uid="{E89A2FEC-0659-4F61-ADA4-07A73EB5618E}"/>
+    <hyperlink ref="AL2" r:id="rId3" xr:uid="{4F8A1E68-C5B6-42D4-A495-3784461637C1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/segur-rapport/src/main/resources/template-segur-requirement-export-avec-colonnes-prepub-modifie.xlsx
+++ b/segur-rapport/src/main/resources/template-segur-requirement-export-avec-colonnes-prepub-modifie.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flabatie\Documents\ENV-ANS\19-PLUGIN-SQUASH\Claire2\squash-plugin\segur-rapport\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DA21E3-2E15-4C55-ACD5-37545F4A7BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDD0A0A-8C28-408C-826A-3C4FCD5164DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12975" yWindow="-18120" windowWidth="27495" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exigences" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Exigences!$C$1:$AC$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Exigences!$C$1:$AD$1</definedName>
     <definedName name="appDefaut">#REF!</definedName>
     <definedName name="Applicable">#REF!</definedName>
     <definedName name="appNonApp">#REF!</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Profil</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Ceci est un commentaire</t>
   </si>
 </sst>
 </file>
@@ -783,9 +786,9 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:AO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.5"/>
@@ -795,30 +798,31 @@
     <col min="3" max="3" width="37.92578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.2109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="66.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.0703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.2109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="66.42578125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="30.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="7" customWidth="1"/>
-    <col min="19" max="19" width="30.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="7" customWidth="1"/>
-    <col min="21" max="21" width="30.5703125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" style="7" customWidth="1"/>
-    <col min="23" max="23" width="30.5703125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="30.5703125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="18.5703125" style="7" customWidth="1"/>
-    <col min="27" max="27" width="30.5703125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="18.5703125" style="7" customWidth="1"/>
-    <col min="29" max="34" width="30.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.0703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.2109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="66.42578125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="30.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="30.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="30.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="30.5703125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="30.5703125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" style="7" customWidth="1"/>
+    <col min="24" max="24" width="30.5703125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" style="7" customWidth="1"/>
+    <col min="26" max="26" width="30.5703125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" style="7" customWidth="1"/>
+    <col min="28" max="28" width="30.5703125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="18.5703125" style="7" customWidth="1"/>
+    <col min="30" max="34" width="30.5703125" style="6" customWidth="1"/>
     <col min="35" max="38" width="15.2109375" style="21" customWidth="1"/>
     <col min="39" max="39" width="40.28515625" style="21" customWidth="1"/>
     <col min="40" max="40" width="52.28515625" style="21" customWidth="1"/>
@@ -842,80 +846,80 @@
       <c r="E1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="AE1" s="12" t="s">
         <v>45</v>
@@ -967,79 +971,81 @@
       <c r="E2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="17"/>
+      <c r="L2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="AE2" s="17"/>
       <c r="AF2" s="26" t="s">
         <v>53</v>
@@ -1072,7 +1078,7 @@
       <c r="A10" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:AC2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:AD2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="AJ2" r:id="rId1" xr:uid="{469CC100-57DA-4667-A398-7625D4E1EA7C}"/>
     <hyperlink ref="AK2" r:id="rId2" xr:uid="{E89A2FEC-0659-4F61-ADA4-07A73EB5618E}"/>
